--- a/Equilibrium Output.xlsx
+++ b/Equilibrium Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsethi/Google Drive/Teaching/Intro to Economic Reasoning/Intro Fall 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC7E59A-BC3D-364C-B423-586A241C0538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35F21D0-2C92-CE41-8E82-A8F6D20CFB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14180" xr2:uid="{B4B64F0B-3553-0442-A00F-26B770EBE5A6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Partial" sheetId="2" r:id="rId1"/>
     <sheet name="Complete" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Consumption</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Disposable Income</t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -124,6 +133,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,18 +448,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE9A0FF-9E5F-4F42-8365-4D92686E7CD4}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="15.83203125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -463,42 +476,59 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="2">
-        <f>$C$13+$C$14*A2</f>
-        <v>125</v>
+        <f>$C$13+$C$14*F2</f>
+        <v>144</v>
       </c>
       <c r="C2" s="2">
+        <f>$C$15</f>
+        <v>40</v>
+      </c>
+      <c r="D2" s="2">
+        <f>$C$16</f>
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <f>$C$17*A2</f>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <f>A2-E2</f>
+        <v>80</v>
+      </c>
+      <c r="G2" s="2">
+        <f>$C$18</f>
+        <v>60</v>
+      </c>
+      <c r="H2" s="2">
+        <f>$C$19*A2</f>
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2">
-        <f>$C$18*A2</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <f>SUM(B2:F2)</f>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="2">
+        <f>B2+C2+D2+G2-H2</f>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>A2+100</f>
         <v>200</v>
@@ -509,8 +539,10 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A11" si="0">A3+100</f>
         <v>300</v>
@@ -521,8 +553,10 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -533,8 +567,10 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -545,8 +581,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -557,8 +595,10 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -569,8 +609,10 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>800</v>
@@ -581,8 +623,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>900</v>
@@ -593,8 +637,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -605,68 +651,83 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1">
+      <c r="B19" s="5"/>
+      <c r="C19" s="1">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -675,19 +736,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2E8C3E-4549-8F4F-BCB1-329EDE9CCEC4}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="15.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="5" width="15.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.83203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -701,346 +764,470 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="2">
-        <f>$C$13+$C$14*A2</f>
-        <v>125</v>
+        <f>$C$13+$C$14*F2</f>
+        <v>144</v>
       </c>
       <c r="C2" s="2">
+        <f>$C$15</f>
+        <v>40</v>
+      </c>
+      <c r="D2" s="2">
+        <f>$C$16</f>
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <f>$C$17*A2</f>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <f>A2-E2</f>
+        <v>80</v>
+      </c>
+      <c r="G2" s="2">
+        <f>$C$18</f>
+        <v>60</v>
+      </c>
+      <c r="H2" s="2">
+        <f>$C$19*A2</f>
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2">
-        <f>$C$18*A2</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <f>SUM(B2:F2)</f>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="2">
+        <f>B2+C2+D2+G2-H2</f>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>A2+100</f>
         <v>200</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B11" si="0">$C$13+$C$14*A3</f>
+        <f t="shared" ref="B3:B11" si="0">$C$13+$C$14*F3</f>
+        <v>208</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C11" si="1">$C$15</f>
+        <v>40</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D11" si="2">$C$16</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E11" si="3">$C$17*A3</f>
+        <v>40</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="4">A3-E3</f>
+        <v>160</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="5">$C$18</f>
+        <v>60</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H11" si="6">$C$19*A3</f>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I11" si="7">B3+C3+D3+G3-H3</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A11" si="8">A3+100</f>
+        <v>300</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="7"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="7"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="7"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f t="shared" si="8"/>
+        <v>700</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>528</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="7"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>592</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="7"/>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f t="shared" si="8"/>
+        <v>900</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="7"/>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="C3" s="2">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F11" si="1">$C$18*A3</f>
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G11" si="2">SUM(B3:F3)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <f t="shared" ref="A4:A11" si="3">A3+100</f>
-        <v>300</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="2"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>425</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="2"/>
-        <v>545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="2"/>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>575</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="2"/>
-        <v>715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <f t="shared" si="3"/>
+      <c r="F11" s="2">
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
+      <c r="G11" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="7"/>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3">
         <v>80</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1">
-        <v>20</v>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
